--- a/tables/待控设备分布+矩阵控制位统计.xlsx
+++ b/tables/待控设备分布+矩阵控制位统计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\23124实施方案修改\总结-git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\23124实施方案修改\New\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵设备" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">矩阵设备!$A$1:$C$209</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -414,10 +414,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>（23124-9Y-1）天线阵2配套开关矩阵单刀8开关组-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2组SP8T</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -455,6 +451,38 @@
   </si>
   <si>
     <t>（23124-10Y）天线阵3配套开关矩阵-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>80+70ns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100m/100m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有源本振功分（12V-1A-1台）（12V-5A-13台）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵供电输入：1.GND 2.+5V 3.-12V 4.NC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>52pin：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幅相供电输入：220VAC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-40   控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>41-52  GND</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -464,53 +492,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SP16T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>，16组二合一(4-16译码）</t>
+      <t>SP16T，16组二合一(4-16译码）</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>80+70ns</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100m/100m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有源本振功分（12V-1A-1台）（12V-5A-13台）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵供电输入：1.GND 2.+5V 3.-12V 4.NC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>52pin：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>幅相供电输入：220VAC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-40   控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>41-52  GND</t>
+    <t>（23124-9Y-1）天线阵2配套开关矩阵单刀8开关组-6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,11 +549,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +609,21 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -737,10 +772,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,36 +855,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,9 +868,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -864,9 +875,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1141,11 +1210,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" style="20" customWidth="1"/>
     <col min="2" max="2" width="56.25" style="2" customWidth="1"/>
@@ -1153,7 +1222,7 @@
     <col min="4" max="4" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
@@ -1167,15 +1236,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1185,8 +1254,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
       <c r="B4" s="11" t="s">
         <v>75</v>
       </c>
@@ -1197,8 +1266,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1208,8 +1277,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
       <c r="B6" s="11" t="s">
         <v>63</v>
       </c>
@@ -1217,8 +1286,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1226,8 +1295,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
       <c r="B8" s="11" t="s">
         <v>64</v>
       </c>
@@ -1235,8 +1304,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1313,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>75</v>
       </c>
@@ -1256,8 +1325,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1267,8 +1336,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
       <c r="B12" s="11" t="s">
         <v>64</v>
       </c>
@@ -1276,8 +1345,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
       <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
@@ -1288,8 +1357,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1299,8 +1368,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
       <c r="B15" s="11" t="s">
         <v>63</v>
       </c>
@@ -1308,8 +1377,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1317,8 +1386,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1326,8 +1395,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="31"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
       <c r="B18" s="11" t="s">
         <v>75</v>
       </c>
@@ -1338,15 +1407,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1356,8 +1425,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
       <c r="B21" s="11" t="s">
         <v>63</v>
       </c>
@@ -1365,8 +1434,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
@@ -1374,8 +1443,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
       <c r="B23" s="11" t="s">
         <v>64</v>
       </c>
@@ -1383,8 +1452,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="27"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
       <c r="B24" s="11" t="s">
         <v>66</v>
       </c>
@@ -1392,8 +1461,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
       <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
@@ -1401,8 +1470,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="27"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
       <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
@@ -1410,8 +1479,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
       <c r="B27" s="11" t="s">
         <v>75</v>
       </c>
@@ -1422,8 +1491,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1433,8 +1502,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
       <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
@@ -1442,8 +1511,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="27"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1451,8 +1520,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="27"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -1460,8 +1529,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="27"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
       <c r="B32" s="11" t="s">
         <v>66</v>
       </c>
@@ -1469,8 +1538,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="27"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="36"/>
       <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
@@ -1478,8 +1547,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="27"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
       <c r="B34" s="11" t="s">
         <v>62</v>
       </c>
@@ -1487,8 +1556,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="27"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
       <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
@@ -1496,8 +1565,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="28"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
       <c r="B36" s="11" t="s">
         <v>75</v>
       </c>
@@ -1508,8 +1577,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="29" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -1519,8 +1588,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="31"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
       <c r="B38" s="11" t="s">
         <v>75</v>
       </c>
@@ -1531,15 +1600,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="33"/>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -1549,8 +1618,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
       <c r="B41" s="11" t="s">
         <v>75</v>
       </c>
@@ -1561,8 +1630,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="26" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -1572,8 +1641,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="28"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
       <c r="B43" s="11" t="s">
         <v>75</v>
       </c>
@@ -1584,8 +1653,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="26" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1595,8 +1664,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="27"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
       <c r="B45" s="11" t="s">
         <v>63</v>
       </c>
@@ -1604,8 +1673,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="27"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="36"/>
       <c r="B46" s="6" t="s">
         <v>13</v>
       </c>
@@ -1613,8 +1682,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="27"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="36"/>
       <c r="B47" s="11" t="s">
         <v>64</v>
       </c>
@@ -1622,8 +1691,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="27"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="36"/>
       <c r="B48" s="6" t="s">
         <v>14</v>
       </c>
@@ -1631,8 +1700,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="28"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
       <c r="B49" s="11" t="s">
         <v>75</v>
       </c>
@@ -1643,8 +1712,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="26" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1654,8 +1723,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="27"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="36"/>
       <c r="B51" s="11" t="s">
         <v>63</v>
       </c>
@@ -1663,8 +1732,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="27"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="36"/>
       <c r="B52" s="6" t="s">
         <v>13</v>
       </c>
@@ -1672,8 +1741,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="27"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="36"/>
       <c r="B53" s="11" t="s">
         <v>64</v>
       </c>
@@ -1681,8 +1750,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="27"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="36"/>
       <c r="B54" s="11" t="s">
         <v>11</v>
       </c>
@@ -1690,8 +1759,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="27"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="36"/>
       <c r="B55" s="11" t="s">
         <v>65</v>
       </c>
@@ -1699,8 +1768,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="27"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="36"/>
       <c r="B56" s="11" t="s">
         <v>70</v>
       </c>
@@ -1708,8 +1777,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="27"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="36"/>
       <c r="B57" s="11" t="s">
         <v>67</v>
       </c>
@@ -1717,8 +1786,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="27"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="36"/>
       <c r="B58" s="6" t="s">
         <v>19</v>
       </c>
@@ -1726,8 +1795,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="28"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="35"/>
       <c r="B59" s="11" t="s">
         <v>75</v>
       </c>
@@ -1738,8 +1807,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="26" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -1749,8 +1818,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="27"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="36"/>
       <c r="B61" s="4" t="s">
         <v>63</v>
       </c>
@@ -1758,8 +1827,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="27"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="36"/>
       <c r="B62" s="6" t="s">
         <v>13</v>
       </c>
@@ -1767,8 +1836,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="27"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="36"/>
       <c r="B63" s="11" t="s">
         <v>64</v>
       </c>
@@ -1776,8 +1845,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="27"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="36"/>
       <c r="B64" s="11" t="s">
         <v>70</v>
       </c>
@@ -1785,8 +1854,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="27"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="36"/>
       <c r="B65" s="11" t="s">
         <v>67</v>
       </c>
@@ -1794,8 +1863,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="27"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="36"/>
       <c r="B66" s="6" t="s">
         <v>19</v>
       </c>
@@ -1803,8 +1872,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="27"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="36"/>
       <c r="B67" s="6" t="s">
         <v>20</v>
       </c>
@@ -1812,8 +1881,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="28"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="35"/>
       <c r="B68" s="11" t="s">
         <v>75</v>
       </c>
@@ -1824,8 +1893,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="26" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1835,8 +1904,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="27"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="36"/>
       <c r="B70" s="14" t="s">
         <v>63</v>
       </c>
@@ -1844,8 +1913,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="27"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="36"/>
       <c r="B71" s="8" t="s">
         <v>13</v>
       </c>
@@ -1853,8 +1922,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="27"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="36"/>
       <c r="B72" s="14" t="s">
         <v>64</v>
       </c>
@@ -1862,8 +1931,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="27"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="36"/>
       <c r="B73" s="11" t="s">
         <v>16</v>
       </c>
@@ -1871,8 +1940,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="27"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="36"/>
       <c r="B74" s="8" t="s">
         <v>19</v>
       </c>
@@ -1880,8 +1949,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="27"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="36"/>
       <c r="B75" s="6" t="s">
         <v>14</v>
       </c>
@@ -1889,8 +1958,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="28"/>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="35"/>
       <c r="B76" s="11" t="s">
         <v>75</v>
       </c>
@@ -1901,8 +1970,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="29" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -1912,8 +1981,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="30"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="38"/>
       <c r="B78" s="11" t="s">
         <v>11</v>
       </c>
@@ -1921,8 +1990,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="30"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="38"/>
       <c r="B79" s="11" t="s">
         <v>75</v>
       </c>
@@ -1933,15 +2002,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="33"/>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="26" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -1951,8 +2020,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="27"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="36"/>
       <c r="B82" s="11" t="s">
         <v>11</v>
       </c>
@@ -1960,8 +2029,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="28"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="35"/>
       <c r="B83" s="11" t="s">
         <v>75</v>
       </c>
@@ -1972,8 +2041,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="26" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -1983,8 +2052,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="27"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="36"/>
       <c r="B85" s="11" t="s">
         <v>63</v>
       </c>
@@ -1992,8 +2061,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="27"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="36"/>
       <c r="B86" s="6" t="s">
         <v>13</v>
       </c>
@@ -2001,8 +2070,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="27"/>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="36"/>
       <c r="B87" s="11" t="s">
         <v>64</v>
       </c>
@@ -2010,8 +2079,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="27"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="36"/>
       <c r="B88" s="11" t="s">
         <v>16</v>
       </c>
@@ -2019,8 +2088,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="27"/>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="36"/>
       <c r="B89" s="6" t="s">
         <v>73</v>
       </c>
@@ -2028,8 +2097,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="27"/>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="36"/>
       <c r="B90" s="4" t="s">
         <v>69</v>
       </c>
@@ -2037,8 +2106,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="27"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="36"/>
       <c r="B91" s="6" t="s">
         <v>14</v>
       </c>
@@ -2046,8 +2115,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="27"/>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="36"/>
       <c r="B92" s="6" t="s">
         <v>19</v>
       </c>
@@ -2055,8 +2124,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="28"/>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="35"/>
       <c r="B93" s="11" t="s">
         <v>75</v>
       </c>
@@ -2067,8 +2136,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="26" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -2078,8 +2147,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="27"/>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="36"/>
       <c r="B95" s="11" t="s">
         <v>63</v>
       </c>
@@ -2087,8 +2156,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="27"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="36"/>
       <c r="B96" s="6" t="s">
         <v>13</v>
       </c>
@@ -2096,8 +2165,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="27"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="36"/>
       <c r="B97" s="11" t="s">
         <v>64</v>
       </c>
@@ -2105,8 +2174,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="27"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="36"/>
       <c r="B98" s="11" t="s">
         <v>70</v>
       </c>
@@ -2114,8 +2183,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="27"/>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="36"/>
       <c r="B99" s="11" t="s">
         <v>67</v>
       </c>
@@ -2123,8 +2192,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="28"/>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="35"/>
       <c r="B100" s="11" t="s">
         <v>75</v>
       </c>
@@ -2135,8 +2204,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="26" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -2146,8 +2215,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="27"/>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="36"/>
       <c r="B102" s="5" t="s">
         <v>71</v>
       </c>
@@ -2155,8 +2224,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="27"/>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="36"/>
       <c r="B103" s="8" t="s">
         <v>21</v>
       </c>
@@ -2164,8 +2233,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="27"/>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="36"/>
       <c r="B104" s="5" t="s">
         <v>22</v>
       </c>
@@ -2173,8 +2242,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="27"/>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="36"/>
       <c r="B105" s="10" t="s">
         <v>73</v>
       </c>
@@ -2182,8 +2251,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="28"/>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="35"/>
       <c r="B106" s="11" t="s">
         <v>75</v>
       </c>
@@ -2194,8 +2263,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="26" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -2205,8 +2274,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="27"/>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="36"/>
       <c r="B108" s="4" t="s">
         <v>63</v>
       </c>
@@ -2214,8 +2283,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="27"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="36"/>
       <c r="B109" s="6" t="s">
         <v>13</v>
       </c>
@@ -2223,8 +2292,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="27"/>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="36"/>
       <c r="B110" s="11" t="s">
         <v>64</v>
       </c>
@@ -2232,8 +2301,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="27"/>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="36"/>
       <c r="B111" s="6" t="s">
         <v>22</v>
       </c>
@@ -2241,8 +2310,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="27"/>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="36"/>
       <c r="B112" s="11" t="s">
         <v>70</v>
       </c>
@@ -2250,8 +2319,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="27"/>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="36"/>
       <c r="B113" s="11" t="s">
         <v>67</v>
       </c>
@@ -2259,8 +2328,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="27"/>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="36"/>
       <c r="B114" s="6" t="s">
         <v>23</v>
       </c>
@@ -2268,8 +2337,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="28"/>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="35"/>
       <c r="B115" s="11" t="s">
         <v>75</v>
       </c>
@@ -2280,8 +2349,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="26" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -2291,8 +2360,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="27"/>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="36"/>
       <c r="B117" s="11" t="s">
         <v>63</v>
       </c>
@@ -2300,8 +2369,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="27"/>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="36"/>
       <c r="B118" s="6" t="s">
         <v>13</v>
       </c>
@@ -2309,8 +2378,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="27"/>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="36"/>
       <c r="B119" s="11" t="s">
         <v>64</v>
       </c>
@@ -2318,8 +2387,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="27"/>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="36"/>
       <c r="B120" s="11" t="s">
         <v>16</v>
       </c>
@@ -2327,8 +2396,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="27"/>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="36"/>
       <c r="B121" s="6" t="s">
         <v>14</v>
       </c>
@@ -2336,8 +2405,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="27"/>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="36"/>
       <c r="B122" s="6" t="s">
         <v>19</v>
       </c>
@@ -2345,8 +2414,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="28"/>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="35"/>
       <c r="B123" s="11" t="s">
         <v>75</v>
       </c>
@@ -2357,8 +2426,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="26" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -2368,8 +2437,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="27"/>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="36"/>
       <c r="B125" s="6" t="s">
         <v>23</v>
       </c>
@@ -2377,8 +2446,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="27"/>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="36"/>
       <c r="B126" s="4" t="s">
         <v>69</v>
       </c>
@@ -2386,8 +2455,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="28"/>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="35"/>
       <c r="B127" s="11" t="s">
         <v>75</v>
       </c>
@@ -2398,8 +2467,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="29" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -2409,8 +2478,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="31"/>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="39"/>
       <c r="B129" s="11" t="s">
         <v>75</v>
       </c>
@@ -2421,15 +2490,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="32"/>
       <c r="C130" s="33"/>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="26" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -2439,8 +2508,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="28"/>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="35"/>
       <c r="B132" s="11" t="s">
         <v>75</v>
       </c>
@@ -2451,8 +2520,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="26" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B133" s="11" t="s">
@@ -2462,8 +2531,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="27"/>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="36"/>
       <c r="B134" s="11" t="s">
         <v>64</v>
       </c>
@@ -2471,8 +2540,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="27"/>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="36"/>
       <c r="B135" s="11" t="s">
         <v>11</v>
       </c>
@@ -2480,8 +2549,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="27"/>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="36"/>
       <c r="B136" s="11" t="s">
         <v>15</v>
       </c>
@@ -2489,8 +2558,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="27"/>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="36"/>
       <c r="B137" s="17" t="s">
         <v>61</v>
       </c>
@@ -2498,8 +2567,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="28"/>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="35"/>
       <c r="B138" s="11" t="s">
         <v>75</v>
       </c>
@@ -2510,8 +2579,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="26" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -2521,8 +2590,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="27"/>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="36"/>
       <c r="B140" s="11" t="s">
         <v>63</v>
       </c>
@@ -2530,8 +2599,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="27"/>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="36"/>
       <c r="B141" s="6" t="s">
         <v>13</v>
       </c>
@@ -2539,8 +2608,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="27"/>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="36"/>
       <c r="B142" s="11" t="s">
         <v>64</v>
       </c>
@@ -2548,8 +2617,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="27"/>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="36"/>
       <c r="B143" s="11" t="s">
         <v>17</v>
       </c>
@@ -2557,8 +2626,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="27"/>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="36"/>
       <c r="B144" s="11" t="s">
         <v>16</v>
       </c>
@@ -2566,8 +2635,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="27"/>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="36"/>
       <c r="B145" s="11" t="s">
         <v>70</v>
       </c>
@@ -2575,8 +2644,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="27"/>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="36"/>
       <c r="B146" s="11" t="s">
         <v>67</v>
       </c>
@@ -2584,8 +2653,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="27"/>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="36"/>
       <c r="B147" s="6" t="s">
         <v>19</v>
       </c>
@@ -2593,8 +2662,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="28"/>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="35"/>
       <c r="B148" s="11" t="s">
         <v>75</v>
       </c>
@@ -2605,8 +2674,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="26" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -2616,8 +2685,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="27"/>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="36"/>
       <c r="B150" s="4" t="s">
         <v>63</v>
       </c>
@@ -2625,8 +2694,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="27"/>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="36"/>
       <c r="B151" s="6" t="s">
         <v>13</v>
       </c>
@@ -2634,8 +2703,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="27"/>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="36"/>
       <c r="B152" s="11" t="s">
         <v>64</v>
       </c>
@@ -2643,8 +2712,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="27"/>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="36"/>
       <c r="B153" s="11" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2721,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="27"/>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="36"/>
       <c r="B154" s="11" t="s">
         <v>16</v>
       </c>
@@ -2661,8 +2730,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="27"/>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="36"/>
       <c r="B155" s="6" t="s">
         <v>19</v>
       </c>
@@ -2670,8 +2739,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="28"/>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="35"/>
       <c r="B156" s="11" t="s">
         <v>75</v>
       </c>
@@ -2682,8 +2751,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="26" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -2693,8 +2762,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="27"/>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="36"/>
       <c r="B158" s="11" t="s">
         <v>63</v>
       </c>
@@ -2702,8 +2771,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="27"/>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="36"/>
       <c r="B159" s="6" t="s">
         <v>13</v>
       </c>
@@ -2711,8 +2780,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="27"/>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="36"/>
       <c r="B160" s="11" t="s">
         <v>64</v>
       </c>
@@ -2720,8 +2789,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="27"/>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="36"/>
       <c r="B161" s="11" t="s">
         <v>70</v>
       </c>
@@ -2729,8 +2798,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="27"/>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="36"/>
       <c r="B162" s="11" t="s">
         <v>67</v>
       </c>
@@ -2738,8 +2807,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="27"/>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="36"/>
       <c r="B163" s="11" t="s">
         <v>18</v>
       </c>
@@ -2747,8 +2816,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="27"/>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="36"/>
       <c r="B164" s="6" t="s">
         <v>14</v>
       </c>
@@ -2756,8 +2825,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="28"/>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="35"/>
       <c r="B165" s="11" t="s">
         <v>75</v>
       </c>
@@ -2768,8 +2837,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="26" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -2779,8 +2848,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="27"/>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="36"/>
       <c r="B167" s="11" t="s">
         <v>11</v>
       </c>
@@ -2788,8 +2857,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="27"/>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="36"/>
       <c r="B168" s="11" t="s">
         <v>64</v>
       </c>
@@ -2797,8 +2866,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="28"/>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="35"/>
       <c r="B169" s="11" t="s">
         <v>75</v>
       </c>
@@ -2809,8 +2878,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="29" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B170" s="18" t="s">
@@ -2820,8 +2889,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="30"/>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="38"/>
       <c r="B171" s="18" t="s">
         <v>66</v>
       </c>
@@ -2829,8 +2898,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="31"/>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="39"/>
       <c r="B172" s="11" t="s">
         <v>75</v>
       </c>
@@ -2841,15 +2910,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B173" s="32"/>
       <c r="C173" s="33"/>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="26" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -2859,8 +2928,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="27"/>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="36"/>
       <c r="B175" s="6" t="s">
         <v>12</v>
       </c>
@@ -2868,8 +2937,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="28"/>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="35"/>
       <c r="B176" s="11" t="s">
         <v>75</v>
       </c>
@@ -2880,8 +2949,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="26" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -2891,8 +2960,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="27"/>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="36"/>
       <c r="B178" s="11" t="s">
         <v>63</v>
       </c>
@@ -2900,8 +2969,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="27"/>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="36"/>
       <c r="B179" s="6" t="s">
         <v>13</v>
       </c>
@@ -2909,8 +2978,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="27"/>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="36"/>
       <c r="B180" s="11" t="s">
         <v>64</v>
       </c>
@@ -2918,8 +2987,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="27"/>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="36"/>
       <c r="B181" s="4" t="s">
         <v>69</v>
       </c>
@@ -2927,8 +2996,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="28"/>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="35"/>
       <c r="B182" s="11" t="s">
         <v>75</v>
       </c>
@@ -2939,8 +3008,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="26" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -2950,8 +3019,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="27"/>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="36"/>
       <c r="B184" s="11" t="s">
         <v>63</v>
       </c>
@@ -2959,8 +3028,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="27"/>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="36"/>
       <c r="B185" s="6" t="s">
         <v>13</v>
       </c>
@@ -2968,8 +3037,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="27"/>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="36"/>
       <c r="B186" s="11" t="s">
         <v>64</v>
       </c>
@@ -2977,8 +3046,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="27"/>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="36"/>
       <c r="B187" s="11" t="s">
         <v>11</v>
       </c>
@@ -2986,8 +3055,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="27"/>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="36"/>
       <c r="B188" s="6" t="s">
         <v>72</v>
       </c>
@@ -2995,8 +3064,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="27"/>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="36"/>
       <c r="B189" s="6" t="s">
         <v>14</v>
       </c>
@@ -3004,8 +3073,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="28"/>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="35"/>
       <c r="B190" s="11" t="s">
         <v>75</v>
       </c>
@@ -3016,8 +3085,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="29" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -3027,8 +3096,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="30"/>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="38"/>
       <c r="B192" s="11" t="s">
         <v>63</v>
       </c>
@@ -3036,8 +3105,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="30"/>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="38"/>
       <c r="B193" s="6" t="s">
         <v>13</v>
       </c>
@@ -3045,8 +3114,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="30"/>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="38"/>
       <c r="B194" s="11" t="s">
         <v>64</v>
       </c>
@@ -3054,8 +3123,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="30"/>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="38"/>
       <c r="B195" s="11" t="s">
         <v>16</v>
       </c>
@@ -3063,8 +3132,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="30"/>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="38"/>
       <c r="B196" s="6" t="s">
         <v>14</v>
       </c>
@@ -3072,8 +3141,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="31"/>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="39"/>
       <c r="B197" s="11" t="s">
         <v>75</v>
       </c>
@@ -3084,15 +3153,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B198" s="32"/>
       <c r="C198" s="33"/>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="26" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -3102,8 +3171,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="27"/>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="36"/>
       <c r="B200" s="11" t="s">
         <v>64</v>
       </c>
@@ -3111,8 +3180,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="28"/>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="35"/>
       <c r="B201" s="11" t="s">
         <v>75</v>
       </c>
@@ -3123,8 +3192,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="26" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -3134,8 +3203,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="27"/>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="36"/>
       <c r="B203" s="11" t="s">
         <v>63</v>
       </c>
@@ -3143,8 +3212,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="27"/>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="36"/>
       <c r="B204" s="6" t="s">
         <v>13</v>
       </c>
@@ -3152,8 +3221,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="27"/>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="36"/>
       <c r="B205" s="11" t="s">
         <v>64</v>
       </c>
@@ -3161,8 +3230,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="27"/>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="36"/>
       <c r="B206" s="11" t="s">
         <v>11</v>
       </c>
@@ -3170,8 +3239,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="27"/>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="36"/>
       <c r="B207" s="6" t="s">
         <v>14</v>
       </c>
@@ -3179,8 +3248,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="28"/>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="35"/>
       <c r="B208" s="11" t="s">
         <v>75</v>
       </c>
@@ -3191,8 +3260,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="24" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B209" s="11" t="s">
@@ -3202,8 +3271,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="25"/>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="41"/>
       <c r="B210" s="11" t="s">
         <v>75</v>
       </c>
@@ -3217,29 +3286,11 @@
   </sheetData>
   <autoFilter ref="A1:C209"/>
   <mergeCells count="43">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A107:A115"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="A84:A93"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A191:A197"/>
+    <mergeCell ref="A183:A190"/>
+    <mergeCell ref="A177:A182"/>
     <mergeCell ref="A69:A76"/>
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A202:A208"/>
@@ -3255,11 +3306,29 @@
     <mergeCell ref="A124:A127"/>
     <mergeCell ref="A116:A123"/>
     <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A191:A197"/>
-    <mergeCell ref="A183:A190"/>
-    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A107:A115"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,11 +3339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="55.25" customWidth="1"/>
@@ -3282,25 +3351,25 @@
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="7" max="8" width="11.5" style="35" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H1" s="21" t="s">
@@ -3313,304 +3382,304 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42.75">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="36" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="28">
         <v>32</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40">
+      <c r="F3" s="42"/>
+      <c r="G3" s="29">
         <v>24</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="30">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="28">
         <v>40</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40">
+      <c r="F4" s="42"/>
+      <c r="G4" s="29">
         <v>30</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="30">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41">
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="36" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="47">
         <v>32</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40">
+      <c r="F7" s="42"/>
+      <c r="G7" s="29">
         <v>32</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="30">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="47">
         <v>32</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40">
+      <c r="F8" s="42"/>
+      <c r="G8" s="29">
         <v>24</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="30">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="36" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="49">
+        <v>16</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="29">
+        <v>8</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="38">
-        <v>16</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40">
-        <v>8</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41" t="s">
+      <c r="J10" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="42"/>
-      <c r="B11" s="36" t="s">
+      <c r="C11" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="49">
+        <v>40</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="29">
+        <v>36</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="38">
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="49">
         <v>40</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40">
-        <v>36</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="42"/>
-      <c r="B12" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="37" t="s">
+      <c r="E12" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="38">
-        <v>40</v>
-      </c>
-      <c r="E12" s="38" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="29">
+        <v>24</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40">
-        <v>24</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41" t="s">
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="36" t="s">
+      <c r="C13" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="52">
+        <v>10</v>
+      </c>
+      <c r="E13" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="29">
+        <v>10</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="38">
-        <v>10</v>
-      </c>
-      <c r="E13" s="38" t="s">
+      <c r="J13" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40">
-        <v>10</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
+      <c r="D23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="C23" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>127</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="C24" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
         <v>129</v>
-      </c>
-      <c r="D24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3619,5 +3688,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>